--- a/crime_states_adj_ohio.xlsx
+++ b/crime_states_adj_ohio.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20364"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20366"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michelj8\Documents\GitHub\Dynamic-MESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA837E1-4794-476F-87F5-4034884A63EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB1945A-6B9B-41FA-8A82-CA79960E9CEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="8438" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CrimeStatebyState-1" sheetId="1" r:id="rId1"/>
     <sheet name="MurderPop" sheetId="2" r:id="rId2"/>
-    <sheet name="Weight Matrix" sheetId="3" r:id="rId3"/>
+    <sheet name="Murder" sheetId="3" r:id="rId3"/>
+    <sheet name="Weight Matrix" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="45">
   <si>
     <t>Uniform Crime Reporting Statistics - UCR Data Online</t>
   </si>
@@ -164,7 +165,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,10 +175,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -200,12 +197,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -427,41 +422,41 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -487,7 +482,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1960</v>
       </c>
@@ -510,7 +505,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1961</v>
       </c>
@@ -533,7 +528,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1962</v>
       </c>
@@ -556,7 +551,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1963</v>
       </c>
@@ -579,7 +574,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1964</v>
       </c>
@@ -602,7 +597,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1965</v>
       </c>
@@ -625,7 +620,7 @@
         <v>3204</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1966</v>
       </c>
@@ -648,7 +643,7 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1967</v>
       </c>
@@ -671,7 +666,7 @@
         <v>3389</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1968</v>
       </c>
@@ -694,7 +689,7 @@
         <v>4126</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1969</v>
       </c>
@@ -717,7 +712,7 @@
         <v>4234</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1970</v>
       </c>
@@ -740,7 +735,7 @@
         <v>5171</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1971</v>
       </c>
@@ -763,7 +758,7 @@
         <v>5078</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1972</v>
       </c>
@@ -786,7 +781,7 @@
         <v>5577</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1973</v>
       </c>
@@ -809,7 +804,7 @@
         <v>6284</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1974</v>
       </c>
@@ -832,7 +827,7 @@
         <v>6783</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1975</v>
       </c>
@@ -855,7 +850,7 @@
         <v>7609</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1976</v>
       </c>
@@ -878,7 +873,7 @@
         <v>8286</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1977</v>
       </c>
@@ -901,7 +896,7 @@
         <v>8181</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1978</v>
       </c>
@@ -924,7 +919,7 @@
         <v>9072</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1979</v>
       </c>
@@ -947,7 +942,7 @@
         <v>8958</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1980</v>
       </c>
@@ -970,7 +965,7 @@
         <v>10620</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1981</v>
       </c>
@@ -993,7 +988,7 @@
         <v>9618</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1982</v>
       </c>
@@ -1016,7 +1011,7 @@
         <v>8602</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1983</v>
       </c>
@@ -1039,7 +1034,7 @@
         <v>8278</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1984</v>
       </c>
@@ -1062,7 +1057,7 @@
         <v>9671</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1985</v>
       </c>
@@ -1085,7 +1080,7 @@
         <v>10312</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1986</v>
       </c>
@@ -1108,7 +1103,7 @@
         <v>10230</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1987</v>
       </c>
@@ -1131,7 +1126,7 @@
         <v>11352</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1988</v>
       </c>
@@ -1154,7 +1149,7 @@
         <v>14135</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1989</v>
       </c>
@@ -1177,7 +1172,7 @@
         <v>14907</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1990</v>
       </c>
@@ -1200,7 +1195,7 @@
         <v>18209</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1991</v>
       </c>
@@ -1223,7 +1218,7 @@
         <v>19102</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1992</v>
       </c>
@@ -1246,7 +1241,7 @@
         <v>19008</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1993</v>
       </c>
@@ -1269,7 +1264,7 @@
         <v>18432</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1994</v>
       </c>
@@ -1292,7 +1287,7 @@
         <v>20216</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1995</v>
       </c>
@@ -1315,7 +1310,7 @@
         <v>20211</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1996</v>
       </c>
@@ -1338,7 +1333,7 @@
         <v>21705</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1997</v>
       </c>
@@ -1361,7 +1356,7 @@
         <v>20058</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1998</v>
       </c>
@@ -1384,7 +1379,7 @@
         <v>16456</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1999</v>
       </c>
@@ -1407,7 +1402,7 @@
         <v>13767</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2000</v>
       </c>
@@ -1430,7 +1425,7 @@
         <v>12837</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>2001</v>
       </c>
@@ -1453,7 +1448,7 @@
         <v>13434</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>2002</v>
       </c>
@@ -1476,7 +1471,7 @@
         <v>13184</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>2003</v>
       </c>
@@ -1499,7 +1494,7 @@
         <v>13383</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2004</v>
       </c>
@@ -1522,7 +1517,7 @@
         <v>11802</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>2005</v>
       </c>
@@ -1545,7 +1540,7 @@
         <v>11281</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>2006</v>
       </c>
@@ -1568,7 +1563,7 @@
         <v>10956</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>2007</v>
       </c>
@@ -1591,7 +1586,7 @@
         <v>11377</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>2008</v>
       </c>
@@ -1614,7 +1609,7 @@
         <v>11912</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>2009</v>
       </c>
@@ -1637,7 +1632,7 @@
         <v>12175</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>2010</v>
       </c>
@@ -1660,7 +1655,7 @@
         <v>12396</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>2011</v>
       </c>
@@ -1683,7 +1678,7 @@
         <v>12578</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>2012</v>
       </c>
@@ -1706,7 +1701,7 @@
         <v>13975</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>2013</v>
       </c>
@@ -1732,7 +1727,7 @@
         <v>13915</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>2014</v>
       </c>
@@ -1758,26 +1753,26 @@
         <v>14686</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C69" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C71" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>5</v>
       </c>
@@ -1803,7 +1798,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>1960</v>
       </c>
@@ -1826,7 +1821,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>1961</v>
       </c>
@@ -1849,7 +1844,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>1962</v>
       </c>
@@ -1872,7 +1867,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>1963</v>
       </c>
@@ -1895,7 +1890,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>1964</v>
       </c>
@@ -1918,7 +1913,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>1965</v>
       </c>
@@ -1941,7 +1936,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>1966</v>
       </c>
@@ -1964,7 +1959,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>1967</v>
       </c>
@@ -1987,7 +1982,7 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>1968</v>
       </c>
@@ -2010,7 +2005,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>1969</v>
       </c>
@@ -2033,7 +2028,7 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>1970</v>
       </c>
@@ -2056,7 +2051,7 @@
         <v>4015</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>1971</v>
       </c>
@@ -2079,7 +2074,7 @@
         <v>4329</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>1972</v>
       </c>
@@ -2102,7 +2097,7 @@
         <v>3862</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>1973</v>
       </c>
@@ -2125,7 +2120,7 @@
         <v>3645</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>1974</v>
       </c>
@@ -2148,7 +2143,7 @@
         <v>3818</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>1975</v>
       </c>
@@ -2171,7 +2166,7 @@
         <v>4595</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>1976</v>
       </c>
@@ -2194,7 +2189,7 @@
         <v>4632</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>1977</v>
       </c>
@@ -2217,7 +2212,7 @@
         <v>4263</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>1978</v>
       </c>
@@ -2240,7 +2235,7 @@
         <v>3921</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>1979</v>
       </c>
@@ -2263,7 +2258,7 @@
         <v>4447</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>1980</v>
       </c>
@@ -2286,7 +2281,7 @@
         <v>5224</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>1981</v>
       </c>
@@ -2309,7 +2304,7 @@
         <v>5838</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>1982</v>
       </c>
@@ -2332,7 +2327,7 @@
         <v>6893</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>1983</v>
       </c>
@@ -2355,7 +2350,7 @@
         <v>7550</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>1984</v>
       </c>
@@ -2378,7 +2373,7 @@
         <v>6641</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>1985</v>
       </c>
@@ -2401,7 +2396,7 @@
         <v>7501</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>1986</v>
       </c>
@@ -2424,7 +2419,7 @@
         <v>8283</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>1987</v>
       </c>
@@ -2447,7 +2442,7 @@
         <v>8167</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>1988</v>
       </c>
@@ -2470,7 +2465,7 @@
         <v>8456</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>1989</v>
       </c>
@@ -2493,7 +2488,7 @@
         <v>9256</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>1990</v>
       </c>
@@ -2516,7 +2511,7 @@
         <v>10509</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>1991</v>
       </c>
@@ -2539,7 +2534,7 @@
         <v>11610</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>1992</v>
       </c>
@@ -2562,7 +2557,7 @@
         <v>15409</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>1993</v>
       </c>
@@ -2585,7 +2580,7 @@
         <v>12555</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>1994</v>
       </c>
@@ -2608,7 +2603,7 @@
         <v>11802</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>1995</v>
       </c>
@@ -2631,7 +2626,7 @@
         <v>8571</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>1996</v>
       </c>
@@ -2654,7 +2649,7 @@
         <v>7347</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>1997</v>
       </c>
@@ -2677,7 +2672,7 @@
         <v>7308</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>1998</v>
       </c>
@@ -2700,7 +2695,7 @@
         <v>8097</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>1999</v>
       </c>
@@ -2723,7 +2718,7 @@
         <v>7757</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>2000</v>
       </c>
@@ -2746,7 +2741,7 @@
         <v>7363</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>2001</v>
       </c>
@@ -2769,7 +2764,7 @@
         <v>6009</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>2002</v>
       </c>
@@ -2792,7 +2787,7 @@
         <v>6692</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>2003</v>
       </c>
@@ -2815,7 +2810,7 @@
         <v>5703</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>2004</v>
       </c>
@@ -2838,7 +2833,7 @@
         <v>5410</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>2005</v>
       </c>
@@ -2861,7 +2856,7 @@
         <v>5833</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>2006</v>
       </c>
@@ -2884,7 +2879,7 @@
         <v>6026</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>2007</v>
       </c>
@@ -2907,7 +2902,7 @@
         <v>6690</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>2008</v>
       </c>
@@ -2930,7 +2925,7 @@
         <v>6952</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>2009</v>
       </c>
@@ -2953,7 +2948,7 @@
         <v>5643</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>2010</v>
       </c>
@@ -2976,7 +2971,7 @@
         <v>5230</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>2011</v>
       </c>
@@ -2999,7 +2994,7 @@
         <v>5110</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>2012</v>
       </c>
@@ -3022,7 +3017,7 @@
         <v>4792</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>2013</v>
       </c>
@@ -3048,7 +3043,7 @@
         <v>4215</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>2014</v>
       </c>
@@ -3074,26 +3069,26 @@
         <v>4404</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="130" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="132" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C132" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="134" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C134" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="136" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>5</v>
       </c>
@@ -3119,7 +3114,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>1960</v>
       </c>
@@ -3142,7 +3137,7 @@
         <v>8216</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>1961</v>
       </c>
@@ -3165,7 +3160,7 @@
         <v>8640</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>1962</v>
       </c>
@@ -3188,7 +3183,7 @@
         <v>8988</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>1963</v>
       </c>
@@ -3211,7 +3206,7 @@
         <v>8582</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>1964</v>
       </c>
@@ -3234,7 +3229,7 @@
         <v>10111</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>1965</v>
       </c>
@@ -3257,7 +3252,7 @@
         <v>11258</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>1966</v>
       </c>
@@ -3280,7 +3275,7 @@
         <v>12041</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>1967</v>
       </c>
@@ -3303,7 +3298,7 @@
         <v>14360</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>1968</v>
       </c>
@@ -3326,7 +3321,7 @@
         <v>15576</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>1969</v>
       </c>
@@ -3349,7 +3344,7 @@
         <v>17208</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>1970</v>
       </c>
@@ -3372,7 +3367,7 @@
         <v>17099</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>1971</v>
       </c>
@@ -3395,7 +3390,7 @@
         <v>18648</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>1972</v>
       </c>
@@ -3418,7 +3413,7 @@
         <v>20493</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>1973</v>
       </c>
@@ -3441,7 +3436,7 @@
         <v>23083</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>1974</v>
       </c>
@@ -3464,7 +3459,7 @@
         <v>24751</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>1975</v>
       </c>
@@ -3487,7 +3482,7 @@
         <v>25884</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>1976</v>
       </c>
@@ -3510,7 +3505,7 @@
         <v>24229</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>1977</v>
       </c>
@@ -3533,7 +3528,7 @@
         <v>25068</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>1978</v>
       </c>
@@ -3556,7 +3551,7 @@
         <v>28279</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>1979</v>
       </c>
@@ -3579,7 +3574,7 @@
         <v>31406</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>1980</v>
       </c>
@@ -3602,7 +3597,7 @@
         <v>31251</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>1981</v>
       </c>
@@ -3625,7 +3620,7 @@
         <v>30143</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>1982</v>
       </c>
@@ -3648,7 +3643,7 @@
         <v>30034</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>1983</v>
       </c>
@@ -3671,7 +3666,7 @@
         <v>33125</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>1984</v>
       </c>
@@ -3694,7 +3689,7 @@
         <v>34388</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>1985</v>
       </c>
@@ -3717,7 +3712,7 @@
         <v>32984</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>1986</v>
       </c>
@@ -3740,7 +3735,7 @@
         <v>38768</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>1987</v>
       </c>
@@ -3763,7 +3758,7 @@
         <v>39022</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>1988</v>
       </c>
@@ -3786,7 +3781,7 @@
         <v>39085</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>1989</v>
       </c>
@@ -3809,7 +3804,7 @@
         <v>37527</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>1990</v>
       </c>
@@ -3832,7 +3827,7 @@
         <v>43536</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>1991</v>
       </c>
@@ -3855,7 +3850,7 @@
         <v>44061</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>1992</v>
       </c>
@@ -3878,7 +3873,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>1993</v>
       </c>
@@ -3901,7 +3896,7 @@
         <v>44747</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>1994</v>
       </c>
@@ -3924,7 +3919,7 @@
         <v>43371</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>1995</v>
       </c>
@@ -3947,7 +3942,7 @@
         <v>41070</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>1996</v>
       </c>
@@ -3970,7 +3965,7 @@
         <v>37856</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>1997</v>
       </c>
@@ -3993,7 +3988,7 @@
         <v>36900</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>1998</v>
       </c>
@@ -4016,7 +4011,7 @@
         <v>39987</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>1999</v>
       </c>
@@ -4039,7 +4034,7 @@
         <v>37062</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>2000</v>
       </c>
@@ -4062,7 +4057,7 @@
         <v>35753</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>2001</v>
       </c>
@@ -4085,7 +4080,7 @@
         <v>36551</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>2002</v>
       </c>
@@ -4108,7 +4103,7 @@
         <v>36417</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>2003</v>
       </c>
@@ -4131,7 +4126,7 @@
         <v>34214</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>2004</v>
       </c>
@@ -4154,7 +4149,7 @@
         <v>32276</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>2005</v>
       </c>
@@ -4177,7 +4172,7 @@
         <v>36760</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>2006</v>
       </c>
@@ -4200,7 +4195,7 @@
         <v>36684</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>2007</v>
       </c>
@@ -4223,7 +4218,7 @@
         <v>35147</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>2008</v>
       </c>
@@ -4246,7 +4241,7 @@
         <v>33205</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>2009</v>
       </c>
@@ -4269,7 +4264,7 @@
         <v>32251</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>2010</v>
       </c>
@@ -4292,7 +4287,7 @@
         <v>31858</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>2011</v>
       </c>
@@ -4315,7 +4310,7 @@
         <v>28507</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>2012</v>
       </c>
@@ -4338,7 +4333,7 @@
         <v>29203</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>2013</v>
       </c>
@@ -4364,7 +4359,7 @@
         <v>27254</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>2014</v>
       </c>
@@ -4390,26 +4385,26 @@
         <v>27519</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="193" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="195" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C195" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="197" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C197" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="199" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>5</v>
       </c>
@@ -4435,7 +4430,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>1960</v>
       </c>
@@ -4458,7 +4453,7 @@
         <v>3347</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>1961</v>
       </c>
@@ -4481,7 +4476,7 @@
         <v>3212</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>1962</v>
       </c>
@@ -4504,7 +4499,7 @@
         <v>3695</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>1963</v>
       </c>
@@ -4527,7 +4522,7 @@
         <v>4018</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>1964</v>
       </c>
@@ -4550,7 +4545,7 @@
         <v>5848</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>1965</v>
       </c>
@@ -4573,7 +4568,7 @@
         <v>6221</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>1966</v>
       </c>
@@ -4596,7 +4591,7 @@
         <v>6985</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>1967</v>
       </c>
@@ -4619,7 +4614,7 @@
         <v>7792</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>1968</v>
       </c>
@@ -4642,7 +4637,7 @@
         <v>8549</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>1969</v>
       </c>
@@ -4665,7 +4660,7 @@
         <v>10714</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>1970</v>
       </c>
@@ -4688,7 +4683,7 @@
         <v>12341</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>1971</v>
       </c>
@@ -4711,7 +4706,7 @@
         <v>11718</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>1972</v>
       </c>
@@ -4734,7 +4729,7 @@
         <v>12008</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>1973</v>
       </c>
@@ -4757,7 +4752,7 @@
         <v>12825</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>1974</v>
       </c>
@@ -4780,7 +4775,7 @@
         <v>15048</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>1975</v>
       </c>
@@ -4803,7 +4798,7 @@
         <v>16631</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>1976</v>
       </c>
@@ -4826,7 +4821,7 @@
         <v>18357</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>1977</v>
       </c>
@@ -4849,7 +4844,7 @@
         <v>19381</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>1978</v>
       </c>
@@ -4872,7 +4867,7 @@
         <v>21042</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>1979</v>
       </c>
@@ -4895,7 +4890,7 @@
         <v>23909</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>1980</v>
       </c>
@@ -4918,7 +4913,7 @@
         <v>24997</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>1981</v>
       </c>
@@ -4941,7 +4936,7 @@
         <v>23842</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>1982</v>
       </c>
@@ -4964,7 +4959,7 @@
         <v>23418</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>1983</v>
       </c>
@@ -4987,7 +4982,7 @@
         <v>21640</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>1984</v>
       </c>
@@ -5010,7 +5005,7 @@
         <v>21489</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>1985</v>
       </c>
@@ -5033,7 +5028,7 @@
         <v>22179</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>1986</v>
       </c>
@@ -5056,7 +5051,7 @@
         <v>25231</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>1987</v>
       </c>
@@ -5079,7 +5074,7 @@
         <v>23990</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>1988</v>
       </c>
@@ -5102,7 +5097,7 @@
         <v>26381</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>1989</v>
       </c>
@@ -5125,7 +5120,7 @@
         <v>26950</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>1990</v>
       </c>
@@ -5148,7 +5143,7 @@
         <v>28715</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>1991</v>
       </c>
@@ -5171,7 +5166,7 @@
         <v>31393</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>1992</v>
       </c>
@@ -5194,7 +5189,7 @@
         <v>29547</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>1993</v>
       </c>
@@ -5217,7 +5212,7 @@
         <v>28431</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>1994</v>
       </c>
@@ -5240,7 +5235,7 @@
         <v>27216</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>1995</v>
       </c>
@@ -5263,7 +5258,7 @@
         <v>28433</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>1996</v>
       </c>
@@ -5286,7 +5281,7 @@
         <v>24405</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>1997</v>
       </c>
@@ -5309,7 +5304,7 @@
         <v>25862</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>1998</v>
       </c>
@@ -5332,7 +5327,7 @@
         <v>20682</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>1999</v>
       </c>
@@ -5355,7 +5350,7 @@
         <v>16685</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>2000</v>
       </c>
@@ -5378,7 +5373,7 @@
         <v>17636</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>2001</v>
       </c>
@@ -5401,7 +5396,7 @@
         <v>17906</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>2002</v>
       </c>
@@ -5424,7 +5419,7 @@
         <v>16922</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>2003</v>
       </c>
@@ -5447,7 +5442,7 @@
         <v>16104</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>2004</v>
       </c>
@@ -5470,7 +5465,7 @@
         <v>16108</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>2005</v>
       </c>
@@ -5493,7 +5488,7 @@
         <v>16228</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>2006</v>
       </c>
@@ -5516,7 +5511,7 @@
         <v>16743</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>2007</v>
       </c>
@@ -5539,7 +5534,7 @@
         <v>17218</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>2008</v>
       </c>
@@ -5562,7 +5557,7 @@
         <v>16652</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>2009</v>
       </c>
@@ -5585,7 +5580,7 @@
         <v>15989</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>2010</v>
       </c>
@@ -5608,7 +5603,7 @@
         <v>15611</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>2011</v>
       </c>
@@ -5631,7 +5626,7 @@
         <v>15048</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>2012</v>
       </c>
@@ -5654,7 +5649,7 @@
         <v>15140</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>2013</v>
       </c>
@@ -5680,7 +5675,7 @@
         <v>14370</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>2014</v>
       </c>
@@ -5706,26 +5701,26 @@
         <v>14771</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="256" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="258" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C258" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="260" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C260" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="262" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>5</v>
       </c>
@@ -5751,7 +5746,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>1960</v>
       </c>
@@ -5774,7 +5769,7 @@
         <v>6072</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>1961</v>
       </c>
@@ -5797,7 +5792,7 @@
         <v>5990</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>1962</v>
       </c>
@@ -5820,7 +5815,7 @@
         <v>6065</v>
       </c>
     </row>
-    <row r="266" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>1963</v>
       </c>
@@ -5843,7 +5838,7 @@
         <v>6709</v>
       </c>
     </row>
-    <row r="267" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>1964</v>
       </c>
@@ -5866,7 +5861,7 @@
         <v>7606</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>1965</v>
       </c>
@@ -5889,7 +5884,7 @@
         <v>8723</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>1966</v>
       </c>
@@ -5912,7 +5907,7 @@
         <v>7709</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>1967</v>
       </c>
@@ -5935,7 +5930,7 @@
         <v>7782</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>1968</v>
       </c>
@@ -5958,7 +5953,7 @@
         <v>9051</v>
       </c>
     </row>
-    <row r="272" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>1969</v>
       </c>
@@ -5981,7 +5976,7 @@
         <v>10279</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>1970</v>
       </c>
@@ -6004,7 +5999,7 @@
         <v>11115</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>1971</v>
       </c>
@@ -6027,7 +6022,7 @@
         <v>12673</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>1972</v>
       </c>
@@ -6050,7 +6045,7 @@
         <v>12622</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>1973</v>
       </c>
@@ -6073,7 +6068,7 @@
         <v>13270</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>1974</v>
       </c>
@@ -6096,7 +6091,7 @@
         <v>15499</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>1975</v>
       </c>
@@ -6119,7 +6114,7 @@
         <v>16138</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>1976</v>
       </c>
@@ -6142,7 +6137,7 @@
         <v>15752</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>1977</v>
       </c>
@@ -6165,7 +6160,7 @@
         <v>15081</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>1978</v>
       </c>
@@ -6188,7 +6183,7 @@
         <v>16397</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>1979</v>
       </c>
@@ -6211,7 +6206,7 @@
         <v>18021</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>1980</v>
       </c>
@@ -6234,7 +6229,7 @@
         <v>18462</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>1981</v>
       </c>
@@ -6257,7 +6252,7 @@
         <v>18576</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>1982</v>
       </c>
@@ -6280,7 +6275,7 @@
         <v>18835</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>1983</v>
       </c>
@@ -6303,7 +6298,7 @@
         <v>17249</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>1984</v>
       </c>
@@ -6326,7 +6321,7 @@
         <v>17196</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>1985</v>
       </c>
@@ -6349,7 +6344,7 @@
         <v>18375</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>1986</v>
       </c>
@@ -6372,7 +6367,7 @@
         <v>20901</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>1987</v>
       </c>
@@ -6395,7 +6390,7 @@
         <v>23074</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>1988</v>
       </c>
@@ -6418,7 +6413,7 @@
         <v>23275</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>1989</v>
       </c>
@@ -6441,7 +6436,7 @@
         <v>23845</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>1990</v>
       </c>
@@ -6464,7 +6459,7 @@
         <v>26414</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>1991</v>
       </c>
@@ -6487,7 +6482,7 @@
         <v>26440</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>1992</v>
       </c>
@@ -6510,7 +6505,7 @@
         <v>25505</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>1993</v>
       </c>
@@ -6533,7 +6528,7 @@
         <v>24714</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>1994</v>
       </c>
@@ -6556,7 +6551,7 @@
         <v>25071</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>1995</v>
       </c>
@@ -6579,7 +6574,7 @@
         <v>24927</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>1996</v>
       </c>
@@ -6602,7 +6597,7 @@
         <v>31401</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>1997</v>
       </c>
@@ -6625,7 +6620,7 @@
         <v>30358</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>1998</v>
       </c>
@@ -6648,7 +6643,7 @@
         <v>26827</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>1999</v>
       </c>
@@ -6671,7 +6666,7 @@
         <v>27890</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>2000</v>
       </c>
@@ -6694,7 +6689,7 @@
         <v>29580</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>2001</v>
       </c>
@@ -6717,7 +6712,7 @@
         <v>28814</v>
       </c>
     </row>
-    <row r="305" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>2002</v>
       </c>
@@ -6740,7 +6735,7 @@
         <v>28060</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>2003</v>
       </c>
@@ -6763,7 +6758,7 @@
         <v>27027</v>
       </c>
     </row>
-    <row r="307" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>2004</v>
       </c>
@@ -6786,7 +6781,7 @@
         <v>28339</v>
       </c>
     </row>
-    <row r="308" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>2005</v>
       </c>
@@ -6809,7 +6804,7 @@
         <v>29205</v>
       </c>
     </row>
-    <row r="309" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>2006</v>
       </c>
@@ -6832,7 +6827,7 @@
         <v>29581</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>2007</v>
       </c>
@@ -6855,7 +6850,7 @@
         <v>28198</v>
       </c>
     </row>
-    <row r="311" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>2008</v>
       </c>
@@ -6878,7 +6873,7 @@
         <v>27981</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>2009</v>
       </c>
@@ -6901,7 +6896,7 @@
         <v>26394</v>
       </c>
     </row>
-    <row r="313" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>2010</v>
       </c>
@@ -6924,7 +6919,7 @@
         <v>26112</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>2011</v>
       </c>
@@ -6947,7 +6942,7 @@
         <v>26046</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>2012</v>
       </c>
@@ -6970,7 +6965,7 @@
         <v>25571</v>
       </c>
     </row>
-    <row r="316" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>2013</v>
       </c>
@@ -6996,7 +6991,7 @@
         <v>23680</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>2014</v>
       </c>
@@ -7022,26 +7017,26 @@
         <v>22189</v>
       </c>
     </row>
-    <row r="318" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="319" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="320" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="321" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C321" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="323" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C323" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="325" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>5</v>
       </c>
@@ -7067,7 +7062,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="326" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>1960</v>
       </c>
@@ -7090,7 +7085,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="327" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>1961</v>
       </c>
@@ -7113,7 +7108,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="328" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>1962</v>
       </c>
@@ -7136,7 +7131,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="329" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>1963</v>
       </c>
@@ -7159,7 +7154,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="330" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>1964</v>
       </c>
@@ -7182,7 +7177,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>1965</v>
       </c>
@@ -7205,7 +7200,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="332" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>1966</v>
       </c>
@@ -7228,7 +7223,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="333" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>1967</v>
       </c>
@@ -7251,7 +7246,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="334" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>1968</v>
       </c>
@@ -7274,7 +7269,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="335" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>1969</v>
       </c>
@@ -7297,7 +7292,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="336" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>1970</v>
       </c>
@@ -7320,7 +7315,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="337" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>1971</v>
       </c>
@@ -7343,7 +7338,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>1972</v>
       </c>
@@ -7366,7 +7361,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="339" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>1973</v>
       </c>
@@ -7389,7 +7384,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="340" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>1974</v>
       </c>
@@ -7412,7 +7407,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="341" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>1975</v>
       </c>
@@ -7435,7 +7430,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="342" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>1976</v>
       </c>
@@ -7458,7 +7453,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="343" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>1977</v>
       </c>
@@ -7481,7 +7476,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="344" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>1978</v>
       </c>
@@ -7504,7 +7499,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="345" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>1979</v>
       </c>
@@ -7527,7 +7522,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="346" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>1980</v>
       </c>
@@ -7550,7 +7545,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="347" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>1981</v>
       </c>
@@ -7573,7 +7568,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>1982</v>
       </c>
@@ -7596,7 +7591,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="349" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>1983</v>
       </c>
@@ -7619,7 +7614,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="350" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>1984</v>
       </c>
@@ -7642,7 +7637,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="351" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>1985</v>
       </c>
@@ -7665,7 +7660,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="352" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>1986</v>
       </c>
@@ -7688,7 +7683,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="353" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>1987</v>
       </c>
@@ -7711,7 +7706,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="354" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>1988</v>
       </c>
@@ -7734,7 +7729,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="355" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>1989</v>
       </c>
@@ -7757,7 +7752,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="356" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>1990</v>
       </c>
@@ -7780,7 +7775,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="357" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>1991</v>
       </c>
@@ -7803,7 +7798,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="358" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>1992</v>
       </c>
@@ -7826,7 +7821,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="359" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>1993</v>
       </c>
@@ -7849,7 +7844,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="360" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>1994</v>
       </c>
@@ -7872,7 +7867,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="361" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>1995</v>
       </c>
@@ -7895,7 +7890,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="362" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>1996</v>
       </c>
@@ -7918,7 +7913,7 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="363" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>1997</v>
       </c>
@@ -7941,7 +7936,7 @@
         <v>2759</v>
       </c>
     </row>
-    <row r="364" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>1998</v>
       </c>
@@ -7964,7 +7959,7 @@
         <v>3410</v>
       </c>
     </row>
-    <row r="365" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>1999</v>
       </c>
@@ -7987,7 +7982,7 @@
         <v>5259</v>
       </c>
     </row>
-    <row r="366" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>2000</v>
       </c>
@@ -8010,7 +8005,7 @@
         <v>4597</v>
       </c>
     </row>
-    <row r="367" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>2001</v>
       </c>
@@ -8033,7 +8028,7 @@
         <v>3968</v>
       </c>
     </row>
-    <row r="368" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>2002</v>
       </c>
@@ -8056,7 +8051,7 @@
         <v>3179</v>
       </c>
     </row>
-    <row r="369" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>2003</v>
       </c>
@@ -8079,7 +8074,7 @@
         <v>3542</v>
       </c>
     </row>
-    <row r="370" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>2004</v>
       </c>
@@ -8102,7 +8097,7 @@
         <v>3922</v>
       </c>
     </row>
-    <row r="371" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>2005</v>
       </c>
@@ -8125,7 +8120,7 @@
         <v>3735</v>
       </c>
     </row>
-    <row r="372" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>2006</v>
       </c>
@@ -8148,7 +8143,7 @@
         <v>3776</v>
       </c>
     </row>
-    <row r="373" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>2007</v>
       </c>
@@ -8171,7 +8166,7 @@
         <v>3716</v>
       </c>
     </row>
-    <row r="374" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>2008</v>
       </c>
@@ -8194,7 +8189,7 @@
         <v>3654</v>
       </c>
     </row>
-    <row r="375" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>2009</v>
       </c>
@@ -8217,7 +8212,7 @@
         <v>4086</v>
       </c>
     </row>
-    <row r="376" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>2010</v>
       </c>
@@ -8240,7 +8235,7 @@
         <v>4390</v>
       </c>
     </row>
-    <row r="377" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>2011</v>
       </c>
@@ -8263,7 +8258,7 @@
         <v>4236</v>
       </c>
     </row>
-    <row r="378" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>2012</v>
       </c>
@@ -8286,7 +8281,7 @@
         <v>4623</v>
       </c>
     </row>
-    <row r="379" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>2013</v>
       </c>
@@ -8312,7 +8307,7 @@
         <v>4242</v>
       </c>
     </row>
-    <row r="380" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>2014</v>
       </c>
@@ -8338,14 +8333,14 @@
         <v>4358</v>
       </c>
     </row>
-    <row r="381" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="382" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="383" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="384" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>18</v>
       </c>
@@ -8353,12 +8348,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>18</v>
       </c>
@@ -8366,17 +8361,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>18</v>
       </c>
@@ -8387,697 +8382,697 @@
         <v>22</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C392" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C394" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C395" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C396" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C397" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C398" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C399" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C400" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="401" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C401" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="402" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C402" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C404" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C407" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="409" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="410" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="412" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="413" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="414" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="415" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="416" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="411" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -9091,13 +9086,13 @@
   </sheetPr>
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:XFD59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="str">
         <f>'CrimeStatebyState-1'!A10</f>
         <v>Year</v>
@@ -9105,23 +9100,23 @@
       <c r="B1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f>'CrimeStatebyState-1'!A11</f>
         <v>1960</v>
@@ -9151,7 +9146,7 @@
         <v>4.3538532407449715</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>'CrimeStatebyState-1'!A12</f>
         <v>1961</v>
@@ -9181,7 +9176,7 @@
         <v>4.4324324324324325</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>'CrimeStatebyState-1'!A13</f>
         <v>1962</v>
@@ -9211,7 +9206,7 @@
         <v>3.7225042301184432</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f>'CrimeStatebyState-1'!A14</f>
         <v>1963</v>
@@ -9241,7 +9236,7 @@
         <v>5.3430821147356582</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f>'CrimeStatebyState-1'!A15</f>
         <v>1964</v>
@@ -9271,7 +9266,7 @@
         <v>3.7284362826933779</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f>'CrimeStatebyState-1'!A16</f>
         <v>1965</v>
@@ -9301,7 +9296,7 @@
         <v>3.9735099337748343</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f>'CrimeStatebyState-1'!A17</f>
         <v>1966</v>
@@ -9331,7 +9326,7 @@
         <v>4.2363433667781498</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f>'CrimeStatebyState-1'!A18</f>
         <v>1967</v>
@@ -9361,7 +9356,7 @@
         <v>4.6162402669632927</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f>'CrimeStatebyState-1'!A19</f>
         <v>1968</v>
@@ -9391,7 +9386,7 @@
         <v>5.4847645429362881</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f>'CrimeStatebyState-1'!A20</f>
         <v>1969</v>
@@ -9421,7 +9416,7 @@
         <v>5.6074766355140184</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f>'CrimeStatebyState-1'!A21</f>
         <v>1970</v>
@@ -9451,7 +9446,7 @@
         <v>6.2491507748086983</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f>'CrimeStatebyState-1'!A22</f>
         <v>1971</v>
@@ -9481,7 +9476,7 @@
         <v>6.4497716894977168</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f>'CrimeStatebyState-1'!A23</f>
         <v>1972</v>
@@ -9511,7 +9506,7 @@
         <v>6.1201572150477261</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f>'CrimeStatebyState-1'!A24</f>
         <v>1973</v>
@@ -9541,7 +9536,7 @@
         <v>5.741360089186176</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f>'CrimeStatebyState-1'!A25</f>
         <v>1974</v>
@@ -9571,7 +9566,7 @@
         <v>6.0301507537688446</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f>'CrimeStatebyState-1'!A26</f>
         <v>1975</v>
@@ -9601,7 +9596,7 @@
         <v>7.376594564614531</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f>'CrimeStatebyState-1'!A27</f>
         <v>1976</v>
@@ -9631,7 +9626,7 @@
         <v>6.6996155958264687</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f>'CrimeStatebyState-1'!A28</f>
         <v>1977</v>
@@ -9661,7 +9656,7 @@
         <v>6.0247444862829482</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f>'CrimeStatebyState-1'!A29</f>
         <v>1978</v>
@@ -9691,7 +9686,7 @@
         <v>6.827956989247312</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f>'CrimeStatebyState-1'!A30</f>
         <v>1979</v>
@@ -9721,7 +9716,7 @@
         <v>6.8157614483493081</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f>'CrimeStatebyState-1'!A31</f>
         <v>1980</v>
@@ -9751,7 +9746,7 @@
         <v>7.1473445802152176</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f>'CrimeStatebyState-1'!A32</f>
         <v>1981</v>
@@ -9781,7 +9776,7 @@
         <v>6.0481804202972835</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f>'CrimeStatebyState-1'!A33</f>
         <v>1982</v>
@@ -9811,7 +9806,7 @@
         <v>5.2361396303901433</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f>'CrimeStatebyState-1'!A34</f>
         <v>1983</v>
@@ -9841,7 +9836,7 @@
         <v>4.885496183206107</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f>'CrimeStatebyState-1'!A35</f>
         <v>1984</v>
@@ -9871,7 +9866,7 @@
         <v>4.4057377049180326</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f>'CrimeStatebyState-1'!A36</f>
         <v>1985</v>
@@ -9901,7 +9896,7 @@
         <v>3.7706611570247932</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f>'CrimeStatebyState-1'!A37</f>
         <v>1986</v>
@@ -9931,7 +9926,7 @@
         <v>5.9405940594059405</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f>'CrimeStatebyState-1'!A38</f>
         <v>1987</v>
@@ -9961,7 +9956,7 @@
         <v>4.8497627833421193</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f>'CrimeStatebyState-1'!A39</f>
         <v>1988</v>
@@ -9991,7 +9986,7 @@
         <v>4.936305732484076</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f>'CrimeStatebyState-1'!A40</f>
         <v>1989</v>
@@ -10021,7 +10016,7 @@
         <v>6.5158858373721058</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f>'CrimeStatebyState-1'!A41</f>
         <v>1990</v>
@@ -10051,7 +10046,7 @@
         <v>5.6872767256006069</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f>'CrimeStatebyState-1'!A42</f>
         <v>1991</v>
@@ -10081,7 +10076,7 @@
         <v>6.1632426429761242</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f>'CrimeStatebyState-1'!A43</f>
         <v>1992</v>
@@ -10111,7 +10106,7 @@
         <v>6.3465783664459163</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f>'CrimeStatebyState-1'!A44</f>
         <v>1993</v>
@@ -10141,7 +10136,7 @@
         <v>6.9230769230769234</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f>'CrimeStatebyState-1'!A45</f>
         <v>1994</v>
@@ -10171,7 +10166,7 @@
         <v>5.433589462129528</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f>'CrimeStatebyState-1'!A46</f>
         <v>1995</v>
@@ -10201,7 +10196,7 @@
         <v>4.8687089715536107</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f>'CrimeStatebyState-1'!A47</f>
         <v>1996</v>
@@ -10231,7 +10226,7 @@
         <v>3.7787513691128147</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <f>'CrimeStatebyState-1'!A48</f>
         <v>1997</v>
@@ -10261,7 +10256,7 @@
         <v>4.1299559471365637</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <f>'CrimeStatebyState-1'!A49</f>
         <v>1998</v>
@@ -10291,7 +10286,7 @@
         <v>4.3070127001656546</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <f>'CrimeStatebyState-1'!A50</f>
         <v>1999</v>
@@ -10321,7 +10316,7 @@
         <v>4.3720613106886388</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <f>'CrimeStatebyState-1'!A51</f>
         <v>2000</v>
@@ -10351,7 +10346,7 @@
         <v>2.5437637971536389</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <f>'CrimeStatebyState-1'!A52</f>
         <v>2001</v>
@@ -10381,7 +10376,7 @@
         <v>2.2210191701717124</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <f>'CrimeStatebyState-1'!A53</f>
         <v>2002</v>
@@ -10411,7 +10406,7 @@
         <v>3.1580976949211141</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <f>'CrimeStatebyState-1'!A54</f>
         <v>2003</v>
@@ -10441,7 +10436,7 @@
         <v>4.0299430287506075</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <f>'CrimeStatebyState-1'!A55</f>
         <v>2004</v>
@@ -10471,7 +10466,7 @@
         <v>3.7516247845574298</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <f>'CrimeStatebyState-1'!A56</f>
         <v>2005</v>
@@ -10501,7 +10496,7 @@
         <v>4.5201900905305878</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <f>'CrimeStatebyState-1'!A57</f>
         <v>2006</v>
@@ -10531,7 +10526,7 @@
         <v>4.3993027105203826</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <f>'CrimeStatebyState-1'!A58</f>
         <v>2007</v>
@@ -10561,7 +10556,7 @@
         <v>3.5871271802145102</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <f>'CrimeStatebyState-1'!A59</f>
         <v>2008</v>
@@ -10591,7 +10586,7 @@
         <v>3.6925423870798495</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <f>'CrimeStatebyState-1'!A60</f>
         <v>2009</v>
@@ -10621,7 +10616,7 @@
         <v>4.6159501960954561</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <f>'CrimeStatebyState-1'!A61</f>
         <v>2010</v>
@@ -10651,7 +10646,7 @@
         <v>3.1277502631624361</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <f>'CrimeStatebyState-1'!A62</f>
         <v>2011</v>
@@ -10681,7 +10676,7 @@
         <v>4.6902595708250763</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <f>'CrimeStatebyState-1'!A63</f>
         <v>2012</v>
@@ -10711,7 +10706,7 @@
         <v>3.7701704117026091</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <f>'CrimeStatebyState-1'!A64</f>
         <v>2013</v>
@@ -10741,7 +10736,7 @@
         <v>3.3448514912912475</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <f>'CrimeStatebyState-1'!A65</f>
         <v>2014</v>
@@ -10781,15 +10776,1707 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="str">
+        <f>'CrimeStatebyState-1'!A10</f>
+        <v>Year</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <f>'CrimeStatebyState-1'!A11</f>
+        <v>1960</v>
+      </c>
+      <c r="B2" s="1">
+        <f>'CrimeStatebyState-1'!D11</f>
+        <v>204</v>
+      </c>
+      <c r="C2" s="1">
+        <f>'CrimeStatebyState-1'!D74</f>
+        <v>205</v>
+      </c>
+      <c r="D2" s="1">
+        <f>'CrimeStatebyState-1'!D137</f>
+        <v>353</v>
+      </c>
+      <c r="E2" s="1">
+        <f>'CrimeStatebyState-1'!D200</f>
+        <v>311</v>
+      </c>
+      <c r="F2" s="1">
+        <f>'CrimeStatebyState-1'!D263</f>
+        <v>296</v>
+      </c>
+      <c r="G2" s="1">
+        <f>'CrimeStatebyState-1'!D326</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <f>'CrimeStatebyState-1'!A12</f>
+        <v>1961</v>
+      </c>
+      <c r="B3" s="1">
+        <f>'CrimeStatebyState-1'!D12</f>
+        <v>192</v>
+      </c>
+      <c r="C3" s="1">
+        <f>'CrimeStatebyState-1'!D75</f>
+        <v>201</v>
+      </c>
+      <c r="D3" s="1">
+        <f>'CrimeStatebyState-1'!D138</f>
+        <v>326</v>
+      </c>
+      <c r="E3" s="1">
+        <f>'CrimeStatebyState-1'!D201</f>
+        <v>306</v>
+      </c>
+      <c r="F3" s="1">
+        <f>'CrimeStatebyState-1'!D264</f>
+        <v>298</v>
+      </c>
+      <c r="G3" s="1">
+        <f>'CrimeStatebyState-1'!D327</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f>'CrimeStatebyState-1'!A13</f>
+        <v>1962</v>
+      </c>
+      <c r="B4" s="1">
+        <f>'CrimeStatebyState-1'!D13</f>
+        <v>167</v>
+      </c>
+      <c r="C4" s="1">
+        <f>'CrimeStatebyState-1'!D76</f>
+        <v>201</v>
+      </c>
+      <c r="D4" s="1">
+        <f>'CrimeStatebyState-1'!D139</f>
+        <v>275</v>
+      </c>
+      <c r="E4" s="1">
+        <f>'CrimeStatebyState-1'!D202</f>
+        <v>321</v>
+      </c>
+      <c r="F4" s="1">
+        <f>'CrimeStatebyState-1'!D265</f>
+        <v>311</v>
+      </c>
+      <c r="G4" s="1">
+        <f>'CrimeStatebyState-1'!D328</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <f>'CrimeStatebyState-1'!A14</f>
+        <v>1963</v>
+      </c>
+      <c r="B5" s="1">
+        <f>'CrimeStatebyState-1'!D14</f>
+        <v>130</v>
+      </c>
+      <c r="C5" s="1">
+        <f>'CrimeStatebyState-1'!D77</f>
+        <v>172</v>
+      </c>
+      <c r="D5" s="1">
+        <f>'CrimeStatebyState-1'!D140</f>
+        <v>283</v>
+      </c>
+      <c r="E5" s="1">
+        <f>'CrimeStatebyState-1'!D203</f>
+        <v>306</v>
+      </c>
+      <c r="F5" s="1">
+        <f>'CrimeStatebyState-1'!D266</f>
+        <v>268</v>
+      </c>
+      <c r="G5" s="1">
+        <f>'CrimeStatebyState-1'!D329</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <f>'CrimeStatebyState-1'!A15</f>
+        <v>1964</v>
+      </c>
+      <c r="B6" s="1">
+        <f>'CrimeStatebyState-1'!D15</f>
+        <v>147</v>
+      </c>
+      <c r="C6" s="1">
+        <f>'CrimeStatebyState-1'!D78</f>
+        <v>164</v>
+      </c>
+      <c r="D6" s="1">
+        <f>'CrimeStatebyState-1'!D141</f>
+        <v>284</v>
+      </c>
+      <c r="E6" s="1">
+        <f>'CrimeStatebyState-1'!D204</f>
+        <v>350</v>
+      </c>
+      <c r="F6" s="1">
+        <f>'CrimeStatebyState-1'!D267</f>
+        <v>384</v>
+      </c>
+      <c r="G6" s="1">
+        <f>'CrimeStatebyState-1'!D330</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f>'CrimeStatebyState-1'!A16</f>
+        <v>1965</v>
+      </c>
+      <c r="B7" s="1">
+        <f>'CrimeStatebyState-1'!D16</f>
+        <v>173</v>
+      </c>
+      <c r="C7" s="1">
+        <f>'CrimeStatebyState-1'!D79</f>
+        <v>168</v>
+      </c>
+      <c r="D7" s="1">
+        <f>'CrimeStatebyState-1'!D142</f>
+        <v>378</v>
+      </c>
+      <c r="E7" s="1">
+        <f>'CrimeStatebyState-1'!D205</f>
+        <v>366</v>
+      </c>
+      <c r="F7" s="1">
+        <f>'CrimeStatebyState-1'!D268</f>
+        <v>411</v>
+      </c>
+      <c r="G7" s="1">
+        <f>'CrimeStatebyState-1'!D331</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <f>'CrimeStatebyState-1'!A17</f>
+        <v>1966</v>
+      </c>
+      <c r="B8" s="1">
+        <f>'CrimeStatebyState-1'!D17</f>
+        <v>197</v>
+      </c>
+      <c r="C8" s="1">
+        <f>'CrimeStatebyState-1'!D80</f>
+        <v>223</v>
+      </c>
+      <c r="D8" s="1">
+        <f>'CrimeStatebyState-1'!D143</f>
+        <v>415</v>
+      </c>
+      <c r="E8" s="1">
+        <f>'CrimeStatebyState-1'!D206</f>
+        <v>462</v>
+      </c>
+      <c r="F8" s="1">
+        <f>'CrimeStatebyState-1'!D269</f>
+        <v>378</v>
+      </c>
+      <c r="G8" s="1">
+        <f>'CrimeStatebyState-1'!D332</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <f>'CrimeStatebyState-1'!A18</f>
+        <v>1967</v>
+      </c>
+      <c r="B9" s="1">
+        <f>'CrimeStatebyState-1'!D18</f>
+        <v>188</v>
+      </c>
+      <c r="C9" s="1">
+        <f>'CrimeStatebyState-1'!D81</f>
+        <v>230</v>
+      </c>
+      <c r="D9" s="1">
+        <f>'CrimeStatebyState-1'!D144</f>
+        <v>560</v>
+      </c>
+      <c r="E9" s="1">
+        <f>'CrimeStatebyState-1'!D207</f>
+        <v>545</v>
+      </c>
+      <c r="F9" s="1">
+        <f>'CrimeStatebyState-1'!D270</f>
+        <v>448</v>
+      </c>
+      <c r="G9" s="1">
+        <f>'CrimeStatebyState-1'!D333</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <f>'CrimeStatebyState-1'!A19</f>
+        <v>1968</v>
+      </c>
+      <c r="B10" s="1">
+        <f>'CrimeStatebyState-1'!D19</f>
+        <v>243</v>
+      </c>
+      <c r="C10" s="1">
+        <f>'CrimeStatebyState-1'!D82</f>
+        <v>288</v>
+      </c>
+      <c r="D10" s="1">
+        <f>'CrimeStatebyState-1'!D145</f>
+        <v>669</v>
+      </c>
+      <c r="E10" s="1">
+        <f>'CrimeStatebyState-1'!D208</f>
+        <v>562</v>
+      </c>
+      <c r="F10" s="1">
+        <f>'CrimeStatebyState-1'!D271</f>
+        <v>475</v>
+      </c>
+      <c r="G10" s="1">
+        <f>'CrimeStatebyState-1'!D334</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <f>'CrimeStatebyState-1'!A20</f>
+        <v>1969</v>
+      </c>
+      <c r="B11" s="1">
+        <f>'CrimeStatebyState-1'!D20</f>
+        <v>255</v>
+      </c>
+      <c r="C11" s="1">
+        <f>'CrimeStatebyState-1'!D83</f>
+        <v>336</v>
+      </c>
+      <c r="D11" s="1">
+        <f>'CrimeStatebyState-1'!D146</f>
+        <v>770</v>
+      </c>
+      <c r="E11" s="1">
+        <f>'CrimeStatebyState-1'!D209</f>
+        <v>685</v>
+      </c>
+      <c r="F11" s="1">
+        <f>'CrimeStatebyState-1'!D272</f>
+        <v>488</v>
+      </c>
+      <c r="G11" s="1">
+        <f>'CrimeStatebyState-1'!D335</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <f>'CrimeStatebyState-1'!A21</f>
+        <v>1970</v>
+      </c>
+      <c r="B12" s="1">
+        <f>'CrimeStatebyState-1'!D21</f>
+        <v>253</v>
+      </c>
+      <c r="C12" s="1">
+        <f>'CrimeStatebyState-1'!D84</f>
+        <v>357</v>
+      </c>
+      <c r="D12" s="1">
+        <f>'CrimeStatebyState-1'!D147</f>
+        <v>831</v>
+      </c>
+      <c r="E12" s="1">
+        <f>'CrimeStatebyState-1'!D210</f>
+        <v>699</v>
+      </c>
+      <c r="F12" s="1">
+        <f>'CrimeStatebyState-1'!D273</f>
+        <v>637</v>
+      </c>
+      <c r="G12" s="1">
+        <f>'CrimeStatebyState-1'!D336</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <f>'CrimeStatebyState-1'!A22</f>
+        <v>1971</v>
+      </c>
+      <c r="B13" s="1">
+        <f>'CrimeStatebyState-1'!D22</f>
+        <v>282</v>
+      </c>
+      <c r="C13" s="1">
+        <f>'CrimeStatebyState-1'!D85</f>
+        <v>358</v>
+      </c>
+      <c r="D13" s="1">
+        <f>'CrimeStatebyState-1'!D148</f>
+        <v>942</v>
+      </c>
+      <c r="E13" s="1">
+        <f>'CrimeStatebyState-1'!D211</f>
+        <v>811</v>
+      </c>
+      <c r="F13" s="1">
+        <f>'CrimeStatebyState-1'!D274</f>
+        <v>738</v>
+      </c>
+      <c r="G13" s="1">
+        <f>'CrimeStatebyState-1'!D337</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <f>'CrimeStatebyState-1'!A23</f>
+        <v>1972</v>
+      </c>
+      <c r="B14" s="1">
+        <f>'CrimeStatebyState-1'!D23</f>
+        <v>321</v>
+      </c>
+      <c r="C14" s="1">
+        <f>'CrimeStatebyState-1'!D86</f>
+        <v>323</v>
+      </c>
+      <c r="D14" s="1">
+        <f>'CrimeStatebyState-1'!D149</f>
+        <v>999</v>
+      </c>
+      <c r="E14" s="1">
+        <f>'CrimeStatebyState-1'!D212</f>
+        <v>811</v>
+      </c>
+      <c r="F14" s="1">
+        <f>'CrimeStatebyState-1'!D275</f>
+        <v>721</v>
+      </c>
+      <c r="G14" s="1">
+        <f>'CrimeStatebyState-1'!D338</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <f>'CrimeStatebyState-1'!A24</f>
+        <v>1973</v>
+      </c>
+      <c r="B15" s="1">
+        <f>'CrimeStatebyState-1'!D24</f>
+        <v>388</v>
+      </c>
+      <c r="C15" s="1">
+        <f>'CrimeStatebyState-1'!D87</f>
+        <v>323</v>
+      </c>
+      <c r="D15" s="1">
+        <f>'CrimeStatebyState-1'!D150</f>
+        <v>1096</v>
+      </c>
+      <c r="E15" s="1">
+        <f>'CrimeStatebyState-1'!D213</f>
+        <v>783</v>
+      </c>
+      <c r="F15" s="1">
+        <f>'CrimeStatebyState-1'!D276</f>
+        <v>754</v>
+      </c>
+      <c r="G15" s="1">
+        <f>'CrimeStatebyState-1'!D339</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <f>'CrimeStatebyState-1'!A25</f>
+        <v>1974</v>
+      </c>
+      <c r="B16" s="1">
+        <f>'CrimeStatebyState-1'!D25</f>
+        <v>427</v>
+      </c>
+      <c r="C16" s="1">
+        <f>'CrimeStatebyState-1'!D88</f>
+        <v>347</v>
+      </c>
+      <c r="D16" s="1">
+        <f>'CrimeStatebyState-1'!D151</f>
+        <v>1186</v>
+      </c>
+      <c r="E16" s="1">
+        <f>'CrimeStatebyState-1'!D214</f>
+        <v>952</v>
+      </c>
+      <c r="F16" s="1">
+        <f>'CrimeStatebyState-1'!D277</f>
+        <v>795</v>
+      </c>
+      <c r="G16" s="1">
+        <f>'CrimeStatebyState-1'!D340</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f>'CrimeStatebyState-1'!A26</f>
+        <v>1975</v>
+      </c>
+      <c r="B17" s="1">
+        <f>'CrimeStatebyState-1'!D26</f>
+        <v>449</v>
+      </c>
+      <c r="C17" s="1">
+        <f>'CrimeStatebyState-1'!D89</f>
+        <v>345</v>
+      </c>
+      <c r="D17" s="1">
+        <f>'CrimeStatebyState-1'!D152</f>
+        <v>1086</v>
+      </c>
+      <c r="E17" s="1">
+        <f>'CrimeStatebyState-1'!D215</f>
+        <v>876</v>
+      </c>
+      <c r="F17" s="1">
+        <f>'CrimeStatebyState-1'!D278</f>
+        <v>808</v>
+      </c>
+      <c r="G17" s="1">
+        <f>'CrimeStatebyState-1'!D341</f>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <f>'CrimeStatebyState-1'!A27</f>
+        <v>1976</v>
+      </c>
+      <c r="B18" s="1">
+        <f>'CrimeStatebyState-1'!D27</f>
+        <v>377</v>
+      </c>
+      <c r="C18" s="1">
+        <f>'CrimeStatebyState-1'!D90</f>
+        <v>362</v>
+      </c>
+      <c r="D18" s="1">
+        <f>'CrimeStatebyState-1'!D153</f>
+        <v>1014</v>
+      </c>
+      <c r="E18" s="1">
+        <f>'CrimeStatebyState-1'!D216</f>
+        <v>792</v>
+      </c>
+      <c r="F18" s="1">
+        <f>'CrimeStatebyState-1'!D279</f>
+        <v>719</v>
+      </c>
+      <c r="G18" s="1">
+        <f>'CrimeStatebyState-1'!D342</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <f>'CrimeStatebyState-1'!A28</f>
+        <v>1977</v>
+      </c>
+      <c r="B19" s="1">
+        <f>'CrimeStatebyState-1'!D28</f>
+        <v>395</v>
+      </c>
+      <c r="C19" s="1">
+        <f>'CrimeStatebyState-1'!D91</f>
+        <v>349</v>
+      </c>
+      <c r="D19" s="1">
+        <f>'CrimeStatebyState-1'!D154</f>
+        <v>853</v>
+      </c>
+      <c r="E19" s="1">
+        <f>'CrimeStatebyState-1'!D217</f>
+        <v>833</v>
+      </c>
+      <c r="F19" s="1">
+        <f>'CrimeStatebyState-1'!D280</f>
+        <v>655</v>
+      </c>
+      <c r="G19" s="1">
+        <f>'CrimeStatebyState-1'!D343</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <f>'CrimeStatebyState-1'!A29</f>
+        <v>1978</v>
+      </c>
+      <c r="B20" s="1">
+        <f>'CrimeStatebyState-1'!D29</f>
+        <v>334</v>
+      </c>
+      <c r="C20" s="1">
+        <f>'CrimeStatebyState-1'!D92</f>
+        <v>316</v>
+      </c>
+      <c r="D20" s="1">
+        <f>'CrimeStatebyState-1'!D155</f>
+        <v>972</v>
+      </c>
+      <c r="E20" s="1">
+        <f>'CrimeStatebyState-1'!D218</f>
+        <v>741</v>
+      </c>
+      <c r="F20" s="1">
+        <f>'CrimeStatebyState-1'!D281</f>
+        <v>725</v>
+      </c>
+      <c r="G20" s="1">
+        <f>'CrimeStatebyState-1'!D344</f>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <f>'CrimeStatebyState-1'!A30</f>
+        <v>1979</v>
+      </c>
+      <c r="B21" s="1">
+        <f>'CrimeStatebyState-1'!D30</f>
+        <v>448</v>
+      </c>
+      <c r="C21" s="1">
+        <f>'CrimeStatebyState-1'!D93</f>
+        <v>335</v>
+      </c>
+      <c r="D21" s="1">
+        <f>'CrimeStatebyState-1'!D156</f>
+        <v>834</v>
+      </c>
+      <c r="E21" s="1">
+        <f>'CrimeStatebyState-1'!D219</f>
+        <v>865</v>
+      </c>
+      <c r="F21" s="1">
+        <f>'CrimeStatebyState-1'!D282</f>
+        <v>724</v>
+      </c>
+      <c r="G21" s="1">
+        <f>'CrimeStatebyState-1'!D345</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <f>'CrimeStatebyState-1'!A31</f>
+        <v>1980</v>
+      </c>
+      <c r="B22" s="1">
+        <f>'CrimeStatebyState-1'!D31</f>
+        <v>485</v>
+      </c>
+      <c r="C22" s="1">
+        <f>'CrimeStatebyState-1'!D94</f>
+        <v>321</v>
+      </c>
+      <c r="D22" s="1">
+        <f>'CrimeStatebyState-1'!D157</f>
+        <v>940</v>
+      </c>
+      <c r="E22" s="1">
+        <f>'CrimeStatebyState-1'!D220</f>
+        <v>871</v>
+      </c>
+      <c r="F22" s="1">
+        <f>'CrimeStatebyState-1'!D283</f>
+        <v>809</v>
+      </c>
+      <c r="G22" s="1">
+        <f>'CrimeStatebyState-1'!D346</f>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <f>'CrimeStatebyState-1'!A32</f>
+        <v>1981</v>
+      </c>
+      <c r="B23" s="1">
+        <f>'CrimeStatebyState-1'!D32</f>
+        <v>388</v>
+      </c>
+      <c r="C23" s="1">
+        <f>'CrimeStatebyState-1'!D95</f>
+        <v>308</v>
+      </c>
+      <c r="D23" s="1">
+        <f>'CrimeStatebyState-1'!D158</f>
+        <v>861</v>
+      </c>
+      <c r="E23" s="1">
+        <f>'CrimeStatebyState-1'!D221</f>
+        <v>799</v>
+      </c>
+      <c r="F23" s="1">
+        <f>'CrimeStatebyState-1'!D284</f>
+        <v>729</v>
+      </c>
+      <c r="G23" s="1">
+        <f>'CrimeStatebyState-1'!D347</f>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <f>'CrimeStatebyState-1'!A33</f>
+        <v>1982</v>
+      </c>
+      <c r="B24" s="1">
+        <f>'CrimeStatebyState-1'!D33</f>
+        <v>355</v>
+      </c>
+      <c r="C24" s="1">
+        <f>'CrimeStatebyState-1'!D96</f>
+        <v>355</v>
+      </c>
+      <c r="D24" s="1">
+        <f>'CrimeStatebyState-1'!D159</f>
+        <v>827</v>
+      </c>
+      <c r="E24" s="1">
+        <f>'CrimeStatebyState-1'!D222</f>
+        <v>676</v>
+      </c>
+      <c r="F24" s="1">
+        <f>'CrimeStatebyState-1'!D285</f>
+        <v>678</v>
+      </c>
+      <c r="G24" s="1">
+        <f>'CrimeStatebyState-1'!D348</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <f>'CrimeStatebyState-1'!A34</f>
+        <v>1983</v>
+      </c>
+      <c r="B25" s="1">
+        <f>'CrimeStatebyState-1'!D34</f>
+        <v>286</v>
+      </c>
+      <c r="C25" s="1">
+        <f>'CrimeStatebyState-1'!D97</f>
+        <v>364</v>
+      </c>
+      <c r="D25" s="1">
+        <f>'CrimeStatebyState-1'!D160</f>
+        <v>910</v>
+      </c>
+      <c r="E25" s="1">
+        <f>'CrimeStatebyState-1'!D223</f>
+        <v>600</v>
+      </c>
+      <c r="F25" s="1">
+        <f>'CrimeStatebyState-1'!D286</f>
+        <v>583</v>
+      </c>
+      <c r="G25" s="1">
+        <f>'CrimeStatebyState-1'!D349</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <f>'CrimeStatebyState-1'!A35</f>
+        <v>1984</v>
+      </c>
+      <c r="B26" s="1">
+        <f>'CrimeStatebyState-1'!D35</f>
+        <v>303</v>
+      </c>
+      <c r="C26" s="1">
+        <f>'CrimeStatebyState-1'!D98</f>
+        <v>244</v>
+      </c>
+      <c r="D26" s="1">
+        <f>'CrimeStatebyState-1'!D161</f>
+        <v>879</v>
+      </c>
+      <c r="E26" s="1">
+        <f>'CrimeStatebyState-1'!D224</f>
+        <v>551</v>
+      </c>
+      <c r="F26" s="1">
+        <f>'CrimeStatebyState-1'!D287</f>
+        <v>538</v>
+      </c>
+      <c r="G26" s="1">
+        <f>'CrimeStatebyState-1'!D350</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <f>'CrimeStatebyState-1'!A36</f>
+        <v>1985</v>
+      </c>
+      <c r="B27" s="1">
+        <f>'CrimeStatebyState-1'!D36</f>
+        <v>319</v>
+      </c>
+      <c r="C27" s="1">
+        <f>'CrimeStatebyState-1'!D99</f>
+        <v>256</v>
+      </c>
+      <c r="D27" s="1">
+        <f>'CrimeStatebyState-1'!D162</f>
+        <v>1018</v>
+      </c>
+      <c r="E27" s="1">
+        <f>'CrimeStatebyState-1'!D225</f>
+        <v>554</v>
+      </c>
+      <c r="F27" s="1">
+        <f>'CrimeStatebyState-1'!D288</f>
+        <v>550</v>
+      </c>
+      <c r="G27" s="1">
+        <f>'CrimeStatebyState-1'!D351</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <f>'CrimeStatebyState-1'!A37</f>
+        <v>1986</v>
+      </c>
+      <c r="B28" s="1">
+        <f>'CrimeStatebyState-1'!D37</f>
+        <v>329</v>
+      </c>
+      <c r="C28" s="1">
+        <f>'CrimeStatebyState-1'!D100</f>
+        <v>248</v>
+      </c>
+      <c r="D28" s="1">
+        <f>'CrimeStatebyState-1'!D163</f>
+        <v>1032</v>
+      </c>
+      <c r="E28" s="1">
+        <f>'CrimeStatebyState-1'!D226</f>
+        <v>595</v>
+      </c>
+      <c r="F28" s="1">
+        <f>'CrimeStatebyState-1'!D289</f>
+        <v>659</v>
+      </c>
+      <c r="G28" s="1">
+        <f>'CrimeStatebyState-1'!D352</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <f>'CrimeStatebyState-1'!A38</f>
+        <v>1987</v>
+      </c>
+      <c r="B29" s="1">
+        <f>'CrimeStatebyState-1'!D38</f>
+        <v>307</v>
+      </c>
+      <c r="C29" s="1">
+        <f>'CrimeStatebyState-1'!D101</f>
+        <v>280</v>
+      </c>
+      <c r="D29" s="1">
+        <f>'CrimeStatebyState-1'!D164</f>
+        <v>1124</v>
+      </c>
+      <c r="E29" s="1">
+        <f>'CrimeStatebyState-1'!D227</f>
+        <v>630</v>
+      </c>
+      <c r="F29" s="1">
+        <f>'CrimeStatebyState-1'!D290</f>
+        <v>642</v>
+      </c>
+      <c r="G29" s="1">
+        <f>'CrimeStatebyState-1'!D353</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <f>'CrimeStatebyState-1'!A39</f>
+        <v>1988</v>
+      </c>
+      <c r="B30" s="1">
+        <f>'CrimeStatebyState-1'!D39</f>
+        <v>358</v>
+      </c>
+      <c r="C30" s="1">
+        <f>'CrimeStatebyState-1'!D102</f>
+        <v>229</v>
+      </c>
+      <c r="D30" s="1">
+        <f>'CrimeStatebyState-1'!D165</f>
+        <v>1009</v>
+      </c>
+      <c r="E30" s="1">
+        <f>'CrimeStatebyState-1'!D228</f>
+        <v>585</v>
+      </c>
+      <c r="F30" s="1">
+        <f>'CrimeStatebyState-1'!D291</f>
+        <v>660</v>
+      </c>
+      <c r="G30" s="1">
+        <f>'CrimeStatebyState-1'!D354</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <f>'CrimeStatebyState-1'!A40</f>
+        <v>1989</v>
+      </c>
+      <c r="B31" s="1">
+        <f>'CrimeStatebyState-1'!D40</f>
+        <v>353</v>
+      </c>
+      <c r="C31" s="1">
+        <f>'CrimeStatebyState-1'!D103</f>
+        <v>293</v>
+      </c>
+      <c r="D31" s="1">
+        <f>'CrimeStatebyState-1'!D166</f>
+        <v>993</v>
+      </c>
+      <c r="E31" s="1">
+        <f>'CrimeStatebyState-1'!D229</f>
+        <v>652</v>
+      </c>
+      <c r="F31" s="1">
+        <f>'CrimeStatebyState-1'!D292</f>
+        <v>753</v>
+      </c>
+      <c r="G31" s="1">
+        <f>'CrimeStatebyState-1'!D355</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <f>'CrimeStatebyState-1'!A41</f>
+        <v>1990</v>
+      </c>
+      <c r="B32" s="1">
+        <f>'CrimeStatebyState-1'!D41</f>
+        <v>344</v>
+      </c>
+      <c r="C32" s="1">
+        <f>'CrimeStatebyState-1'!D104</f>
+        <v>264</v>
+      </c>
+      <c r="D32" s="1">
+        <f>'CrimeStatebyState-1'!D167</f>
+        <v>971</v>
+      </c>
+      <c r="E32" s="1">
+        <f>'CrimeStatebyState-1'!D230</f>
+        <v>663</v>
+      </c>
+      <c r="F32" s="1">
+        <f>'CrimeStatebyState-1'!D293</f>
+        <v>801</v>
+      </c>
+      <c r="G32" s="1">
+        <f>'CrimeStatebyState-1'!D356</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f>'CrimeStatebyState-1'!A42</f>
+        <v>1991</v>
+      </c>
+      <c r="B33" s="1">
+        <f>'CrimeStatebyState-1'!D42</f>
+        <v>423</v>
+      </c>
+      <c r="C33" s="1">
+        <f>'CrimeStatebyState-1'!D105</f>
+        <v>253</v>
+      </c>
+      <c r="D33" s="1">
+        <f>'CrimeStatebyState-1'!D168</f>
+        <v>1009</v>
+      </c>
+      <c r="E33" s="1">
+        <f>'CrimeStatebyState-1'!D231</f>
+        <v>783</v>
+      </c>
+      <c r="F33" s="1">
+        <f>'CrimeStatebyState-1'!D294</f>
+        <v>758</v>
+      </c>
+      <c r="G33" s="1">
+        <f>'CrimeStatebyState-1'!D357</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <f>'CrimeStatebyState-1'!A43</f>
+        <v>1992</v>
+      </c>
+      <c r="B34" s="1">
+        <f>'CrimeStatebyState-1'!D43</f>
+        <v>464</v>
+      </c>
+      <c r="C34" s="1">
+        <f>'CrimeStatebyState-1'!D106</f>
+        <v>216</v>
+      </c>
+      <c r="D34" s="1">
+        <f>'CrimeStatebyState-1'!D169</f>
+        <v>938</v>
+      </c>
+      <c r="E34" s="1">
+        <f>'CrimeStatebyState-1'!D232</f>
+        <v>724</v>
+      </c>
+      <c r="F34" s="1">
+        <f>'CrimeStatebyState-1'!D295</f>
+        <v>746</v>
+      </c>
+      <c r="G34" s="1">
+        <f>'CrimeStatebyState-1'!D358</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <f>'CrimeStatebyState-1'!A44</f>
+        <v>1993</v>
+      </c>
+      <c r="B35" s="1">
+        <f>'CrimeStatebyState-1'!D44</f>
+        <v>430</v>
+      </c>
+      <c r="C35" s="1">
+        <f>'CrimeStatebyState-1'!D107</f>
+        <v>249</v>
+      </c>
+      <c r="D35" s="1">
+        <f>'CrimeStatebyState-1'!D170</f>
+        <v>933</v>
+      </c>
+      <c r="E35" s="1">
+        <f>'CrimeStatebyState-1'!D233</f>
+        <v>667</v>
+      </c>
+      <c r="F35" s="1">
+        <f>'CrimeStatebyState-1'!D296</f>
+        <v>823</v>
+      </c>
+      <c r="G35" s="1">
+        <f>'CrimeStatebyState-1'!D359</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <f>'CrimeStatebyState-1'!A45</f>
+        <v>1994</v>
+      </c>
+      <c r="B36" s="1">
+        <f>'CrimeStatebyState-1'!D45</f>
+        <v>453</v>
+      </c>
+      <c r="C36" s="1">
+        <f>'CrimeStatebyState-1'!D108</f>
+        <v>244</v>
+      </c>
+      <c r="D36" s="1">
+        <f>'CrimeStatebyState-1'!D171</f>
+        <v>927</v>
+      </c>
+      <c r="E36" s="1">
+        <f>'CrimeStatebyState-1'!D234</f>
+        <v>662</v>
+      </c>
+      <c r="F36" s="1">
+        <f>'CrimeStatebyState-1'!D297</f>
+        <v>712</v>
+      </c>
+      <c r="G36" s="1">
+        <f>'CrimeStatebyState-1'!D360</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f>'CrimeStatebyState-1'!A46</f>
+        <v>1995</v>
+      </c>
+      <c r="B37" s="1">
+        <f>'CrimeStatebyState-1'!D46</f>
+        <v>466</v>
+      </c>
+      <c r="C37" s="1">
+        <f>'CrimeStatebyState-1'!D109</f>
+        <v>276</v>
+      </c>
+      <c r="D37" s="1">
+        <f>'CrimeStatebyState-1'!D172</f>
+        <v>808</v>
+      </c>
+      <c r="E37" s="1">
+        <f>'CrimeStatebyState-1'!D235</f>
+        <v>600</v>
+      </c>
+      <c r="F37" s="1">
+        <f>'CrimeStatebyState-1'!D298</f>
+        <v>755</v>
+      </c>
+      <c r="G37" s="1">
+        <f>'CrimeStatebyState-1'!D361</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <f>'CrimeStatebyState-1'!A47</f>
+        <v>1996</v>
+      </c>
+      <c r="B38" s="1">
+        <f>'CrimeStatebyState-1'!D47</f>
+        <v>420</v>
+      </c>
+      <c r="C38" s="1">
+        <f>'CrimeStatebyState-1'!D110</f>
+        <v>228</v>
+      </c>
+      <c r="D38" s="1">
+        <f>'CrimeStatebyState-1'!D173</f>
+        <v>722</v>
+      </c>
+      <c r="E38" s="1">
+        <f>'CrimeStatebyState-1'!D236</f>
+        <v>538</v>
+      </c>
+      <c r="F38" s="1">
+        <f>'CrimeStatebyState-1'!D299</f>
+        <v>686</v>
+      </c>
+      <c r="G38" s="1">
+        <f>'CrimeStatebyState-1'!D362</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <f>'CrimeStatebyState-1'!A48</f>
+        <v>1997</v>
+      </c>
+      <c r="B39" s="1">
+        <f>'CrimeStatebyState-1'!D48</f>
+        <v>430</v>
+      </c>
+      <c r="C39" s="1">
+        <f>'CrimeStatebyState-1'!D111</f>
+        <v>228</v>
+      </c>
+      <c r="D39" s="1">
+        <f>'CrimeStatebyState-1'!D174</f>
+        <v>759</v>
+      </c>
+      <c r="E39" s="1">
+        <f>'CrimeStatebyState-1'!D237</f>
+        <v>523</v>
+      </c>
+      <c r="F39" s="1">
+        <f>'CrimeStatebyState-1'!D300</f>
+        <v>705</v>
+      </c>
+      <c r="G39" s="1">
+        <f>'CrimeStatebyState-1'!D363</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <f>'CrimeStatebyState-1'!A49</f>
+        <v>1998</v>
+      </c>
+      <c r="B40" s="1">
+        <f>'CrimeStatebyState-1'!D49</f>
+        <v>454</v>
+      </c>
+      <c r="C40" s="1">
+        <f>'CrimeStatebyState-1'!D112</f>
+        <v>237</v>
+      </c>
+      <c r="D40" s="1">
+        <f>'CrimeStatebyState-1'!D175</f>
+        <v>721</v>
+      </c>
+      <c r="E40" s="1">
+        <f>'CrimeStatebyState-1'!D238</f>
+        <v>443</v>
+      </c>
+      <c r="F40" s="1">
+        <f>'CrimeStatebyState-1'!D301</f>
+        <v>633</v>
+      </c>
+      <c r="G40" s="1">
+        <f>'CrimeStatebyState-1'!D364</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <f>'CrimeStatebyState-1'!A50</f>
+        <v>1999</v>
+      </c>
+      <c r="B41" s="1">
+        <f>'CrimeStatebyState-1'!D50</f>
+        <v>391</v>
+      </c>
+      <c r="C41" s="1">
+        <f>'CrimeStatebyState-1'!D113</f>
+        <v>203</v>
+      </c>
+      <c r="D41" s="1">
+        <f>'CrimeStatebyState-1'!D176</f>
+        <v>695</v>
+      </c>
+      <c r="E41" s="1">
+        <f>'CrimeStatebyState-1'!D239</f>
+        <v>397</v>
+      </c>
+      <c r="F41" s="1">
+        <f>'CrimeStatebyState-1'!D302</f>
+        <v>592</v>
+      </c>
+      <c r="G41" s="1">
+        <f>'CrimeStatebyState-1'!D365</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <f>'CrimeStatebyState-1'!A51</f>
+        <v>2000</v>
+      </c>
+      <c r="B42" s="1">
+        <f>'CrimeStatebyState-1'!D51</f>
+        <v>352</v>
+      </c>
+      <c r="C42" s="1">
+        <f>'CrimeStatebyState-1'!D114</f>
+        <v>193</v>
+      </c>
+      <c r="D42" s="1">
+        <f>'CrimeStatebyState-1'!D177</f>
+        <v>669</v>
+      </c>
+      <c r="E42" s="1">
+        <f>'CrimeStatebyState-1'!D240</f>
+        <v>418</v>
+      </c>
+      <c r="F42" s="1">
+        <f>'CrimeStatebyState-1'!D303</f>
+        <v>602</v>
+      </c>
+      <c r="G42" s="1">
+        <f>'CrimeStatebyState-1'!D366</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <f>'CrimeStatebyState-1'!A52</f>
+        <v>2001</v>
+      </c>
+      <c r="B43" s="1">
+        <f>'CrimeStatebyState-1'!D52</f>
+        <v>413</v>
+      </c>
+      <c r="C43" s="1">
+        <f>'CrimeStatebyState-1'!D115</f>
+        <v>181</v>
+      </c>
+      <c r="D43" s="1">
+        <f>'CrimeStatebyState-1'!D178</f>
+        <v>672</v>
+      </c>
+      <c r="E43" s="1">
+        <f>'CrimeStatebyState-1'!D241</f>
+        <v>452</v>
+      </c>
+      <c r="F43" s="1">
+        <f>'CrimeStatebyState-1'!D304</f>
+        <v>651</v>
+      </c>
+      <c r="G43" s="1">
+        <f>'CrimeStatebyState-1'!D367</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <f>'CrimeStatebyState-1'!A53</f>
+        <v>2002</v>
+      </c>
+      <c r="B44" s="1">
+        <f>'CrimeStatebyState-1'!D53</f>
+        <v>362</v>
+      </c>
+      <c r="C44" s="1">
+        <f>'CrimeStatebyState-1'!D116</f>
+        <v>191</v>
+      </c>
+      <c r="D44" s="1">
+        <f>'CrimeStatebyState-1'!D179</f>
+        <v>678</v>
+      </c>
+      <c r="E44" s="1">
+        <f>'CrimeStatebyState-1'!D242</f>
+        <v>526</v>
+      </c>
+      <c r="F44" s="1">
+        <f>'CrimeStatebyState-1'!D305</f>
+        <v>624</v>
+      </c>
+      <c r="G44" s="1">
+        <f>'CrimeStatebyState-1'!D368</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <f>'CrimeStatebyState-1'!A54</f>
+        <v>2003</v>
+      </c>
+      <c r="B45" s="1">
+        <f>'CrimeStatebyState-1'!D54</f>
+        <v>338</v>
+      </c>
+      <c r="C45" s="1">
+        <f>'CrimeStatebyState-1'!D117</f>
+        <v>181</v>
+      </c>
+      <c r="D45" s="1">
+        <f>'CrimeStatebyState-1'!D180</f>
+        <v>612</v>
+      </c>
+      <c r="E45" s="1">
+        <f>'CrimeStatebyState-1'!D243</f>
+        <v>526</v>
+      </c>
+      <c r="F45" s="1">
+        <f>'CrimeStatebyState-1'!D306</f>
+        <v>647</v>
+      </c>
+      <c r="G45" s="1">
+        <f>'CrimeStatebyState-1'!D369</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <f>'CrimeStatebyState-1'!A55</f>
+        <v>2004</v>
+      </c>
+      <c r="B46" s="1">
+        <f>'CrimeStatebyState-1'!D55</f>
+        <v>316</v>
+      </c>
+      <c r="C46" s="1">
+        <f>'CrimeStatebyState-1'!D118</f>
+        <v>236</v>
+      </c>
+      <c r="D46" s="1">
+        <f>'CrimeStatebyState-1'!D181</f>
+        <v>643</v>
+      </c>
+      <c r="E46" s="1">
+        <f>'CrimeStatebyState-1'!D244</f>
+        <v>506</v>
+      </c>
+      <c r="F46" s="1">
+        <f>'CrimeStatebyState-1'!D307</f>
+        <v>650</v>
+      </c>
+      <c r="G46" s="1">
+        <f>'CrimeStatebyState-1'!D370</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <f>'CrimeStatebyState-1'!A56</f>
+        <v>2005</v>
+      </c>
+      <c r="B47" s="1">
+        <f>'CrimeStatebyState-1'!D56</f>
+        <v>356</v>
+      </c>
+      <c r="C47" s="1">
+        <f>'CrimeStatebyState-1'!D119</f>
+        <v>190</v>
+      </c>
+      <c r="D47" s="1">
+        <f>'CrimeStatebyState-1'!D182</f>
+        <v>629</v>
+      </c>
+      <c r="E47" s="1">
+        <f>'CrimeStatebyState-1'!D245</f>
+        <v>590</v>
+      </c>
+      <c r="F47" s="1">
+        <f>'CrimeStatebyState-1'!D308</f>
+        <v>756</v>
+      </c>
+      <c r="G47" s="1">
+        <f>'CrimeStatebyState-1'!D371</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <f>'CrimeStatebyState-1'!A57</f>
+        <v>2006</v>
+      </c>
+      <c r="B48" s="1">
+        <f>'CrimeStatebyState-1'!D57</f>
+        <v>361</v>
+      </c>
+      <c r="C48" s="1">
+        <f>'CrimeStatebyState-1'!D120</f>
+        <v>173</v>
+      </c>
+      <c r="D48" s="1">
+        <f>'CrimeStatebyState-1'!D183</f>
+        <v>721</v>
+      </c>
+      <c r="E48" s="1">
+        <f>'CrimeStatebyState-1'!D246</f>
+        <v>560</v>
+      </c>
+      <c r="F48" s="1">
+        <f>'CrimeStatebyState-1'!D309</f>
+        <v>741</v>
+      </c>
+      <c r="G48" s="1">
+        <f>'CrimeStatebyState-1'!D372</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <f>'CrimeStatebyState-1'!A58</f>
+        <v>2007</v>
+      </c>
+      <c r="B49" s="1">
+        <f>'CrimeStatebyState-1'!D58</f>
+        <v>350</v>
+      </c>
+      <c r="C49" s="1">
+        <f>'CrimeStatebyState-1'!D121</f>
+        <v>206</v>
+      </c>
+      <c r="D49" s="1">
+        <f>'CrimeStatebyState-1'!D184</f>
+        <v>661</v>
+      </c>
+      <c r="E49" s="1">
+        <f>'CrimeStatebyState-1'!D247</f>
+        <v>529</v>
+      </c>
+      <c r="F49" s="1">
+        <f>'CrimeStatebyState-1'!D310</f>
+        <v>725</v>
+      </c>
+      <c r="G49" s="1">
+        <f>'CrimeStatebyState-1'!D373</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <f>'CrimeStatebyState-1'!A59</f>
+        <v>2008</v>
+      </c>
+      <c r="B50" s="1">
+        <f>'CrimeStatebyState-1'!D59</f>
+        <v>322</v>
+      </c>
+      <c r="C50" s="1">
+        <f>'CrimeStatebyState-1'!D122</f>
+        <v>201</v>
+      </c>
+      <c r="D50" s="1">
+        <f>'CrimeStatebyState-1'!D185</f>
+        <v>554</v>
+      </c>
+      <c r="E50" s="1">
+        <f>'CrimeStatebyState-1'!D248</f>
+        <v>547</v>
+      </c>
+      <c r="F50" s="1">
+        <f>'CrimeStatebyState-1'!D311</f>
+        <v>705</v>
+      </c>
+      <c r="G50" s="1">
+        <f>'CrimeStatebyState-1'!D374</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <f>'CrimeStatebyState-1'!A60</f>
+        <v>2009</v>
+      </c>
+      <c r="B51" s="1">
+        <f>'CrimeStatebyState-1'!D60</f>
+        <v>312</v>
+      </c>
+      <c r="C51" s="1">
+        <f>'CrimeStatebyState-1'!D123</f>
+        <v>184</v>
+      </c>
+      <c r="D51" s="1">
+        <f>'CrimeStatebyState-1'!D186</f>
+        <v>623</v>
+      </c>
+      <c r="E51" s="1">
+        <f>'CrimeStatebyState-1'!D249</f>
+        <v>527</v>
+      </c>
+      <c r="F51" s="1">
+        <f>'CrimeStatebyState-1'!D312</f>
+        <v>664</v>
+      </c>
+      <c r="G51" s="1">
+        <f>'CrimeStatebyState-1'!D375</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <f>'CrimeStatebyState-1'!A61</f>
+        <v>2010</v>
+      </c>
+      <c r="B52" s="1">
+        <f>'CrimeStatebyState-1'!D61</f>
+        <v>268</v>
+      </c>
+      <c r="C52" s="1">
+        <f>'CrimeStatebyState-1'!D124</f>
+        <v>188</v>
+      </c>
+      <c r="D52" s="1">
+        <f>'CrimeStatebyState-1'!D187</f>
+        <v>580</v>
+      </c>
+      <c r="E52" s="1">
+        <f>'CrimeStatebyState-1'!D250</f>
+        <v>479</v>
+      </c>
+      <c r="F52" s="1">
+        <f>'CrimeStatebyState-1'!D313</f>
+        <v>653</v>
+      </c>
+      <c r="G52" s="1">
+        <f>'CrimeStatebyState-1'!D376</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <f>'CrimeStatebyState-1'!A62</f>
+        <v>2011</v>
+      </c>
+      <c r="B53" s="1">
+        <f>'CrimeStatebyState-1'!D62</f>
+        <v>306</v>
+      </c>
+      <c r="C53" s="1">
+        <f>'CrimeStatebyState-1'!D125</f>
+        <v>151</v>
+      </c>
+      <c r="D53" s="1">
+        <f>'CrimeStatebyState-1'!D188</f>
+        <v>617</v>
+      </c>
+      <c r="E53" s="1">
+        <f>'CrimeStatebyState-1'!D251</f>
+        <v>500</v>
+      </c>
+      <c r="F53" s="1">
+        <f>'CrimeStatebyState-1'!D314</f>
+        <v>639</v>
+      </c>
+      <c r="G53" s="1">
+        <f>'CrimeStatebyState-1'!D377</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <f>'CrimeStatebyState-1'!A63</f>
+        <v>2012</v>
+      </c>
+      <c r="B54" s="1">
+        <f>'CrimeStatebyState-1'!D63</f>
+        <v>307</v>
+      </c>
+      <c r="C54" s="1">
+        <f>'CrimeStatebyState-1'!D126</f>
+        <v>201</v>
+      </c>
+      <c r="D54" s="1">
+        <f>'CrimeStatebyState-1'!D189</f>
+        <v>701</v>
+      </c>
+      <c r="E54" s="1">
+        <f>'CrimeStatebyState-1'!D252</f>
+        <v>478</v>
+      </c>
+      <c r="F54" s="1">
+        <f>'CrimeStatebyState-1'!D315</f>
+        <v>707</v>
+      </c>
+      <c r="G54" s="1">
+        <f>'CrimeStatebyState-1'!D378</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <f>'CrimeStatebyState-1'!A64</f>
+        <v>2013</v>
+      </c>
+      <c r="B55" s="1">
+        <f>'CrimeStatebyState-1'!D64</f>
+        <v>357</v>
+      </c>
+      <c r="C55" s="1">
+        <f>'CrimeStatebyState-1'!D127</f>
+        <v>172</v>
+      </c>
+      <c r="D55" s="1">
+        <f>'CrimeStatebyState-1'!D190</f>
+        <v>625</v>
+      </c>
+      <c r="E55" s="1">
+        <f>'CrimeStatebyState-1'!D253</f>
+        <v>478</v>
+      </c>
+      <c r="F55" s="1">
+        <f>'CrimeStatebyState-1'!D316</f>
+        <v>611</v>
+      </c>
+      <c r="G55" s="1">
+        <f>'CrimeStatebyState-1'!D379</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <f>'CrimeStatebyState-1'!A65</f>
+        <v>2014</v>
+      </c>
+      <c r="B56" s="1">
+        <f>'CrimeStatebyState-1'!D65</f>
+        <v>330</v>
+      </c>
+      <c r="C56" s="1">
+        <f>'CrimeStatebyState-1'!D128</f>
+        <v>160</v>
+      </c>
+      <c r="D56" s="1">
+        <f>'CrimeStatebyState-1'!D191</f>
+        <v>535</v>
+      </c>
+      <c r="E56" s="1">
+        <f>'CrimeStatebyState-1'!D254</f>
+        <v>464</v>
+      </c>
+      <c r="F56" s="1">
+        <f>'CrimeStatebyState-1'!D317</f>
+        <v>614</v>
+      </c>
+      <c r="G56" s="1">
+        <f>'CrimeStatebyState-1'!D380</f>
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -10818,164 +12505,164 @@
         <v>West Virginia</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="str">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="str">
         <f>B1</f>
         <v>Indiana</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <f t="shared" ref="C2:E2" si="0">1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="4">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>0</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>C1</f>
         <v>Kentucky</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>0</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>0</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>D1</f>
         <v>Michigan</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <f>1/2</f>
         <v>0.5</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>0</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>0</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <f>1/2</f>
         <v>0.5</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>0</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>E1</f>
         <v>Ohio</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <f t="shared" ref="B5:D5" si="1">1/5</f>
         <v>0.2</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>0</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <f t="shared" ref="F5:G5" si="2">1/5</f>
         <v>0.2</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>F1</f>
         <v>Pennsylvania</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>0</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>0</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>0</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <f>1/2</f>
         <v>0.5</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>0</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <f>1/2</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>G1</f>
         <v>West Virginia</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>0</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <f>1/2</f>
         <v>0.5</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>0</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>0</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="4">
         <f>1/2</f>
         <v>0.5</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>0</v>
       </c>
     </row>
